--- a/cond-files/cond_pm1.xlsx
+++ b/cond-files/cond_pm1.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor\Dropbox\Projects\eb\eb\cond-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egora\Dropbox\Projects\pm\pm\cond-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FD737-45CF-440E-93E2-F95BF088EE0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C061406-3572-4263-8D26-E21B7EB03DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="92" yWindow="144" windowWidth="16259" windowHeight="5590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cond_eb1_c" sheetId="1" r:id="rId1"/>
+    <sheet name="cond_pm1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>targ_right</t>
+    <t>stim1_c</t>
   </si>
   <si>
-    <t>cue_valid</t>
+    <t>stim2_c</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>angle_diff</t>
   </si>
 </sst>
 </file>
@@ -891,84 +897,2714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A98" sqref="A98:A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>-1.6</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-1.6</v>
+      </c>
+      <c r="D7">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-1.6</v>
+      </c>
+      <c r="D8">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-1.6</v>
+      </c>
+      <c r="D9">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-1.6</v>
+      </c>
+      <c r="D10">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-1.2</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-1.2</v>
+      </c>
+      <c r="D12">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-1.2</v>
+      </c>
+      <c r="D13">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-1.2</v>
+      </c>
+      <c r="D14">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>-1.2</v>
+      </c>
+      <c r="D15">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>-0.8</v>
+      </c>
+      <c r="D16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>-0.8</v>
+      </c>
+      <c r="D17">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>-0.8</v>
+      </c>
+      <c r="D18">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>-0.8</v>
+      </c>
+      <c r="D19">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>-0.8</v>
+      </c>
+      <c r="D20">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>-0.4</v>
+      </c>
+      <c r="D21">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>-0.4</v>
+      </c>
+      <c r="D22">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-0.4</v>
+      </c>
+      <c r="D23">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>-0.4</v>
+      </c>
+      <c r="D24">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>-0.4</v>
+      </c>
+      <c r="D25">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>-2</v>
+      </c>
+      <c r="D26">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>-2</v>
+      </c>
+      <c r="D27">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>-2</v>
+      </c>
+      <c r="D28">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>-2</v>
+      </c>
+      <c r="D29">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>-1.6</v>
+      </c>
+      <c r="D30">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>-1.6</v>
+      </c>
+      <c r="D31">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>-1.6</v>
+      </c>
+      <c r="D32">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>-1.6</v>
+      </c>
+      <c r="D33">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>-1.6</v>
+      </c>
+      <c r="D34">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>-1.2</v>
+      </c>
+      <c r="D35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>-1.2</v>
+      </c>
+      <c r="D36">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>-1.2</v>
+      </c>
+      <c r="D37">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>-1.2</v>
+      </c>
+      <c r="D38">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>-1.2</v>
+      </c>
+      <c r="D39">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>-0.8</v>
+      </c>
+      <c r="D40">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>-0.8</v>
+      </c>
+      <c r="D41">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>-0.8</v>
+      </c>
+      <c r="D42">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>-0.8</v>
+      </c>
+      <c r="D43">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>-0.8</v>
+      </c>
+      <c r="D44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>-0.4</v>
+      </c>
+      <c r="D45">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>-0.4</v>
+      </c>
+      <c r="D46">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>-0.4</v>
+      </c>
+      <c r="D47">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>-0.4</v>
+      </c>
+      <c r="D48">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>-0.4</v>
+      </c>
+      <c r="D49">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>-2</v>
+      </c>
+      <c r="D50">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>-2</v>
+      </c>
+      <c r="D51">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>-2</v>
+      </c>
+      <c r="D52">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>-2</v>
+      </c>
+      <c r="D53">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>-1.6</v>
+      </c>
+      <c r="D54">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>-1.6</v>
+      </c>
+      <c r="D55">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>-1.6</v>
+      </c>
+      <c r="D56">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>-1.6</v>
+      </c>
+      <c r="D57">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>-1.6</v>
+      </c>
+      <c r="D58">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>-1.2</v>
+      </c>
+      <c r="D59">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>-1.2</v>
+      </c>
+      <c r="D60">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>-1.2</v>
+      </c>
+      <c r="D61">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>-1.2</v>
+      </c>
+      <c r="D62">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <v>-1.2</v>
+      </c>
+      <c r="D63">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64">
+        <v>-0.8</v>
+      </c>
+      <c r="D64">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>60</v>
+      </c>
+      <c r="C65">
+        <v>-0.8</v>
+      </c>
+      <c r="D65">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>60</v>
+      </c>
+      <c r="C66">
+        <v>-0.8</v>
+      </c>
+      <c r="D66">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>-0.8</v>
+      </c>
+      <c r="D67">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>-0.8</v>
+      </c>
+      <c r="D68">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>-0.4</v>
+      </c>
+      <c r="D69">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>-0.4</v>
+      </c>
+      <c r="D70">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>60</v>
+      </c>
+      <c r="C71">
+        <v>-0.4</v>
+      </c>
+      <c r="D71">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>-0.4</v>
+      </c>
+      <c r="D72">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
+      </c>
+      <c r="C73">
+        <v>-0.4</v>
+      </c>
+      <c r="D73">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>120</v>
+      </c>
+      <c r="C74">
+        <v>-2</v>
+      </c>
+      <c r="D74">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>120</v>
+      </c>
+      <c r="C75">
+        <v>-2</v>
+      </c>
+      <c r="D75">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>120</v>
+      </c>
+      <c r="C76">
+        <v>-2</v>
+      </c>
+      <c r="D76">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>120</v>
+      </c>
+      <c r="C77">
+        <v>-2</v>
+      </c>
+      <c r="D77">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>120</v>
+      </c>
+      <c r="C78">
+        <v>-1.6</v>
+      </c>
+      <c r="D78">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>120</v>
+      </c>
+      <c r="C79">
+        <v>-1.6</v>
+      </c>
+      <c r="D79">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>120</v>
+      </c>
+      <c r="C80">
+        <v>-1.6</v>
+      </c>
+      <c r="D80">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>120</v>
+      </c>
+      <c r="C81">
+        <v>-1.6</v>
+      </c>
+      <c r="D81">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>120</v>
+      </c>
+      <c r="C82">
+        <v>-1.6</v>
+      </c>
+      <c r="D82">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>120</v>
+      </c>
+      <c r="C83">
+        <v>-1.2</v>
+      </c>
+      <c r="D83">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>120</v>
+      </c>
+      <c r="C84">
+        <v>-1.2</v>
+      </c>
+      <c r="D84">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>120</v>
+      </c>
+      <c r="C85">
+        <v>-1.2</v>
+      </c>
+      <c r="D85">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>120</v>
+      </c>
+      <c r="C86">
+        <v>-1.2</v>
+      </c>
+      <c r="D86">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>120</v>
+      </c>
+      <c r="C87">
+        <v>-1.2</v>
+      </c>
+      <c r="D87">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>120</v>
+      </c>
+      <c r="C88">
+        <v>-0.8</v>
+      </c>
+      <c r="D88">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>120</v>
+      </c>
+      <c r="C89">
+        <v>-0.8</v>
+      </c>
+      <c r="D89">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>120</v>
+      </c>
+      <c r="C90">
+        <v>-0.8</v>
+      </c>
+      <c r="D90">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>120</v>
+      </c>
+      <c r="C91">
+        <v>-0.8</v>
+      </c>
+      <c r="D91">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>120</v>
+      </c>
+      <c r="C92">
+        <v>-0.8</v>
+      </c>
+      <c r="D92">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>120</v>
+      </c>
+      <c r="C93">
+        <v>-0.4</v>
+      </c>
+      <c r="D93">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>120</v>
+      </c>
+      <c r="C94">
+        <v>-0.4</v>
+      </c>
+      <c r="D94">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>120</v>
+      </c>
+      <c r="C95">
+        <v>-0.4</v>
+      </c>
+      <c r="D95">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>120</v>
+      </c>
+      <c r="C96">
+        <v>-0.4</v>
+      </c>
+      <c r="D96">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>120</v>
+      </c>
+      <c r="C97">
+        <v>-0.4</v>
+      </c>
+      <c r="D97">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>-2</v>
+      </c>
+      <c r="D98">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>-2</v>
+      </c>
+      <c r="D99">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>-2</v>
+      </c>
+      <c r="D100">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>-2</v>
+      </c>
+      <c r="D101">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>-1.6</v>
+      </c>
+      <c r="D102">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>-1.6</v>
+      </c>
+      <c r="D103">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>-1.6</v>
+      </c>
+      <c r="D104">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>-1.6</v>
+      </c>
+      <c r="D105">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>-1.6</v>
+      </c>
+      <c r="D106">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>-1.2</v>
+      </c>
+      <c r="D107">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>-1.2</v>
+      </c>
+      <c r="D108">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>-1.2</v>
+      </c>
+      <c r="D109">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>-1.2</v>
+      </c>
+      <c r="D110">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>-1.2</v>
+      </c>
+      <c r="D111">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>-0.8</v>
+      </c>
+      <c r="D112">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>-0.8</v>
+      </c>
+      <c r="D113">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>-0.8</v>
+      </c>
+      <c r="D114">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>-0.8</v>
+      </c>
+      <c r="D115">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>-0.8</v>
+      </c>
+      <c r="D116">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>-0.4</v>
+      </c>
+      <c r="D117">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>-0.4</v>
+      </c>
+      <c r="D118">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>-0.4</v>
+      </c>
+      <c r="D119">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>-0.4</v>
+      </c>
+      <c r="D120">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>-0.4</v>
+      </c>
+      <c r="D121">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>-2</v>
+      </c>
+      <c r="D122">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>-2</v>
+      </c>
+      <c r="D123">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>20</v>
+      </c>
+      <c r="C124">
+        <v>-2</v>
+      </c>
+      <c r="D124">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>20</v>
+      </c>
+      <c r="C125">
+        <v>-2</v>
+      </c>
+      <c r="D125">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>-1.6</v>
+      </c>
+      <c r="D126">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>-1.6</v>
+      </c>
+      <c r="D127">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>-1.6</v>
+      </c>
+      <c r="D128">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>20</v>
+      </c>
+      <c r="C129">
+        <v>-1.6</v>
+      </c>
+      <c r="D129">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>20</v>
+      </c>
+      <c r="C130">
+        <v>-1.6</v>
+      </c>
+      <c r="D130">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>-1.2</v>
+      </c>
+      <c r="D131">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>-1.2</v>
+      </c>
+      <c r="D132">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>20</v>
+      </c>
+      <c r="C133">
+        <v>-1.2</v>
+      </c>
+      <c r="D133">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>-1.2</v>
+      </c>
+      <c r="D134">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>20</v>
+      </c>
+      <c r="C135">
+        <v>-1.2</v>
+      </c>
+      <c r="D135">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <v>-0.8</v>
+      </c>
+      <c r="D136">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>20</v>
+      </c>
+      <c r="C137">
+        <v>-0.8</v>
+      </c>
+      <c r="D137">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>-0.8</v>
+      </c>
+      <c r="D138">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>20</v>
+      </c>
+      <c r="C139">
+        <v>-0.8</v>
+      </c>
+      <c r="D139">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>20</v>
+      </c>
+      <c r="C140">
+        <v>-0.8</v>
+      </c>
+      <c r="D140">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>20</v>
+      </c>
+      <c r="C141">
+        <v>-0.4</v>
+      </c>
+      <c r="D141">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>20</v>
+      </c>
+      <c r="C142">
+        <v>-0.4</v>
+      </c>
+      <c r="D142">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>20</v>
+      </c>
+      <c r="C143">
+        <v>-0.4</v>
+      </c>
+      <c r="D143">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>20</v>
+      </c>
+      <c r="C144">
+        <v>-0.4</v>
+      </c>
+      <c r="D144">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <v>-0.4</v>
+      </c>
+      <c r="D145">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>60</v>
+      </c>
+      <c r="C146">
+        <v>-2</v>
+      </c>
+      <c r="D146">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>60</v>
+      </c>
+      <c r="C147">
+        <v>-2</v>
+      </c>
+      <c r="D147">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>60</v>
+      </c>
+      <c r="C148">
+        <v>-2</v>
+      </c>
+      <c r="D148">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>60</v>
+      </c>
+      <c r="C149">
+        <v>-2</v>
+      </c>
+      <c r="D149">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>60</v>
+      </c>
+      <c r="C150">
+        <v>-1.6</v>
+      </c>
+      <c r="D150">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>60</v>
+      </c>
+      <c r="C151">
+        <v>-1.6</v>
+      </c>
+      <c r="D151">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>60</v>
+      </c>
+      <c r="C152">
+        <v>-1.6</v>
+      </c>
+      <c r="D152">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>60</v>
+      </c>
+      <c r="C153">
+        <v>-1.6</v>
+      </c>
+      <c r="D153">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>60</v>
+      </c>
+      <c r="C154">
+        <v>-1.6</v>
+      </c>
+      <c r="D154">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>60</v>
+      </c>
+      <c r="C155">
+        <v>-1.2</v>
+      </c>
+      <c r="D155">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>60</v>
+      </c>
+      <c r="C156">
+        <v>-1.2</v>
+      </c>
+      <c r="D156">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>60</v>
+      </c>
+      <c r="C157">
+        <v>-1.2</v>
+      </c>
+      <c r="D157">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>60</v>
+      </c>
+      <c r="C158">
+        <v>-1.2</v>
+      </c>
+      <c r="D158">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>60</v>
+      </c>
+      <c r="C159">
+        <v>-1.2</v>
+      </c>
+      <c r="D159">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>60</v>
+      </c>
+      <c r="C160">
+        <v>-0.8</v>
+      </c>
+      <c r="D160">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>60</v>
+      </c>
+      <c r="C161">
+        <v>-0.8</v>
+      </c>
+      <c r="D161">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>60</v>
+      </c>
+      <c r="C162">
+        <v>-0.8</v>
+      </c>
+      <c r="D162">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>60</v>
+      </c>
+      <c r="C163">
+        <v>-0.8</v>
+      </c>
+      <c r="D163">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>60</v>
+      </c>
+      <c r="C164">
+        <v>-0.8</v>
+      </c>
+      <c r="D164">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>60</v>
+      </c>
+      <c r="C165">
+        <v>-0.4</v>
+      </c>
+      <c r="D165">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>60</v>
+      </c>
+      <c r="C166">
+        <v>-0.4</v>
+      </c>
+      <c r="D166">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>60</v>
+      </c>
+      <c r="C167">
+        <v>-0.4</v>
+      </c>
+      <c r="D167">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>60</v>
+      </c>
+      <c r="C168">
+        <v>-0.4</v>
+      </c>
+      <c r="D168">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>60</v>
+      </c>
+      <c r="C169">
+        <v>-0.4</v>
+      </c>
+      <c r="D169">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>120</v>
+      </c>
+      <c r="C170">
+        <v>-2</v>
+      </c>
+      <c r="D170">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>120</v>
+      </c>
+      <c r="C171">
+        <v>-2</v>
+      </c>
+      <c r="D171">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>120</v>
+      </c>
+      <c r="C172">
+        <v>-2</v>
+      </c>
+      <c r="D172">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>120</v>
+      </c>
+      <c r="C173">
+        <v>-2</v>
+      </c>
+      <c r="D173">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>120</v>
+      </c>
+      <c r="C174">
+        <v>-1.6</v>
+      </c>
+      <c r="D174">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>120</v>
+      </c>
+      <c r="C175">
+        <v>-1.6</v>
+      </c>
+      <c r="D175">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>120</v>
+      </c>
+      <c r="C176">
+        <v>-1.6</v>
+      </c>
+      <c r="D176">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>120</v>
+      </c>
+      <c r="C177">
+        <v>-1.6</v>
+      </c>
+      <c r="D177">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>120</v>
+      </c>
+      <c r="C178">
+        <v>-1.6</v>
+      </c>
+      <c r="D178">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>120</v>
+      </c>
+      <c r="C179">
+        <v>-1.2</v>
+      </c>
+      <c r="D179">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>120</v>
+      </c>
+      <c r="C180">
+        <v>-1.2</v>
+      </c>
+      <c r="D180">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>120</v>
+      </c>
+      <c r="C181">
+        <v>-1.2</v>
+      </c>
+      <c r="D181">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>120</v>
+      </c>
+      <c r="C182">
+        <v>-1.2</v>
+      </c>
+      <c r="D182">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>120</v>
+      </c>
+      <c r="C183">
+        <v>-1.2</v>
+      </c>
+      <c r="D183">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>120</v>
+      </c>
+      <c r="C184">
+        <v>-0.8</v>
+      </c>
+      <c r="D184">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>120</v>
+      </c>
+      <c r="C185">
+        <v>-0.8</v>
+      </c>
+      <c r="D185">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>120</v>
+      </c>
+      <c r="C186">
+        <v>-0.8</v>
+      </c>
+      <c r="D186">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>120</v>
+      </c>
+      <c r="C187">
+        <v>-0.8</v>
+      </c>
+      <c r="D187">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>120</v>
+      </c>
+      <c r="C188">
+        <v>-0.8</v>
+      </c>
+      <c r="D188">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>120</v>
+      </c>
+      <c r="C189">
+        <v>-0.4</v>
+      </c>
+      <c r="D189">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>120</v>
+      </c>
+      <c r="C190">
+        <v>-0.4</v>
+      </c>
+      <c r="D190">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>120</v>
+      </c>
+      <c r="C191">
+        <v>-0.4</v>
+      </c>
+      <c r="D191">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>120</v>
+      </c>
+      <c r="C192">
+        <v>-0.4</v>
+      </c>
+      <c r="D192">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>120</v>
+      </c>
+      <c r="C193">
+        <v>-0.4</v>
+      </c>
+      <c r="D193">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>

--- a/cond-files/cond_pm1.xlsx
+++ b/cond-files/cond_pm1.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egora\Dropbox\Projects\pm\pm\cond-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor\Dropbox\Projects\pm\pm\cond-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C061406-3572-4263-8D26-E21B7EB03DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234B9EF-7AB5-46CD-8AEC-F3ADEDB9AF7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="92" yWindow="144" windowWidth="16259" windowHeight="5590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cond_pm1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -900,17 +908,17 @@
   <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:A193"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1257,10 +1265,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>-2</v>
@@ -1271,10 +1279,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>-2</v>
@@ -1285,10 +1293,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>-2</v>
@@ -1299,10 +1307,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>-2</v>
@@ -1313,10 +1321,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>-1.6</v>
@@ -1327,10 +1335,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>-1.6</v>
@@ -1341,10 +1349,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>-1.6</v>
@@ -1355,10 +1363,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>-1.6</v>
@@ -1369,10 +1377,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>-1.6</v>
@@ -1383,10 +1391,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>-1.2</v>
@@ -1397,10 +1405,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>-1.2</v>
@@ -1411,10 +1419,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>-1.2</v>
@@ -1425,10 +1433,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>-1.2</v>
@@ -1439,10 +1447,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>-1.2</v>
@@ -1453,10 +1461,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>-0.8</v>
@@ -1467,10 +1475,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>-0.8</v>
@@ -1481,10 +1489,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>-0.8</v>
@@ -1495,10 +1503,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>-0.8</v>
@@ -1509,10 +1517,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>-0.8</v>
@@ -1523,10 +1531,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>-0.4</v>
@@ -1537,10 +1545,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>-0.4</v>
@@ -1551,10 +1559,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>-0.4</v>
@@ -1565,10 +1573,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>-0.4</v>
@@ -1579,10 +1587,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>-0.4</v>
@@ -1593,10 +1601,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>-2</v>
@@ -1607,10 +1615,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>-2</v>
@@ -1621,10 +1629,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>-2</v>
@@ -1635,10 +1643,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>-2</v>
@@ -1649,10 +1657,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>-1.6</v>
@@ -1663,10 +1671,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>-1.6</v>
@@ -1677,10 +1685,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>-1.6</v>
@@ -1691,10 +1699,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>-1.6</v>
@@ -1705,10 +1713,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>-1.6</v>
@@ -1719,10 +1727,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>-1.2</v>
@@ -1733,10 +1741,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>-1.2</v>
@@ -1747,10 +1755,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>-1.2</v>
@@ -1761,10 +1769,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>-1.2</v>
@@ -1775,10 +1783,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>-1.2</v>
@@ -1789,10 +1797,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>-0.8</v>
@@ -1803,10 +1811,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>-0.8</v>
@@ -1817,10 +1825,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B66">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>-0.8</v>
@@ -1831,10 +1839,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>-0.8</v>
@@ -1845,10 +1853,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>-0.8</v>
@@ -1859,10 +1867,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>-0.4</v>
@@ -1873,10 +1881,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>-0.4</v>
@@ -1887,10 +1895,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B71">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>-0.4</v>
@@ -1901,10 +1909,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>-0.4</v>
@@ -1915,10 +1923,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B73">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>-0.4</v>
@@ -1929,10 +1937,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B74">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>-2</v>
@@ -1943,10 +1951,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>-2</v>
@@ -1957,10 +1965,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>-2</v>
@@ -1971,10 +1979,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>-2</v>
@@ -1985,10 +1993,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>-1.6</v>
@@ -1999,10 +2007,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B79">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>-1.6</v>
@@ -2013,10 +2021,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>-1.6</v>
@@ -2027,10 +2035,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>-1.6</v>
@@ -2041,10 +2049,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>-1.6</v>
@@ -2055,10 +2063,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>-1.2</v>
@@ -2069,10 +2077,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>-1.2</v>
@@ -2083,10 +2091,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>-1.2</v>
@@ -2097,10 +2105,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B86">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>-1.2</v>
@@ -2111,10 +2119,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>-1.2</v>
@@ -2125,10 +2133,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>-0.8</v>
@@ -2139,10 +2147,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>-0.8</v>
@@ -2153,10 +2161,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B90">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>-0.8</v>
@@ -2167,10 +2175,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>-0.8</v>
@@ -2181,10 +2189,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B92">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>-0.8</v>
@@ -2195,10 +2203,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B93">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>-0.4</v>
@@ -2209,10 +2217,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B94">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>-0.4</v>
@@ -2223,10 +2231,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B95">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>-0.4</v>
@@ -2237,10 +2245,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B96">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>-0.4</v>
@@ -2251,10 +2259,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>-0.4</v>
@@ -2265,10 +2273,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>-2</v>
@@ -2279,10 +2287,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>-2</v>
@@ -2293,10 +2301,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>-2</v>
@@ -2307,10 +2315,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>-2</v>
@@ -2321,10 +2329,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>-1.6</v>
@@ -2335,10 +2343,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>-1.6</v>
@@ -2349,10 +2357,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>-1.6</v>
@@ -2363,10 +2371,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>-1.6</v>
@@ -2377,10 +2385,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>-1.6</v>
@@ -2391,10 +2399,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
         <v>-1.2</v>
@@ -2405,10 +2413,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>-1.2</v>
@@ -2419,10 +2427,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>-1.2</v>
@@ -2433,10 +2441,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>-1.2</v>
@@ -2447,10 +2455,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>-1.2</v>
@@ -2461,10 +2469,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>-0.8</v>
@@ -2475,10 +2483,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>-0.8</v>
@@ -2489,10 +2497,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>-0.8</v>
@@ -2503,10 +2511,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>-0.8</v>
@@ -2517,10 +2525,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>-0.8</v>
@@ -2531,10 +2539,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>-0.4</v>
@@ -2545,10 +2553,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>-0.4</v>
@@ -2559,10 +2567,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <v>-0.4</v>
@@ -2573,10 +2581,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>-0.4</v>
@@ -2587,10 +2595,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>-0.4</v>
@@ -2601,10 +2609,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B122">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>-2</v>
@@ -2615,10 +2623,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C123">
         <v>-2</v>
@@ -2629,10 +2637,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B124">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>-2</v>
@@ -2643,10 +2651,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B125">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>-2</v>
@@ -2657,10 +2665,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <v>-1.6</v>
@@ -2671,10 +2679,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <v>-1.6</v>
@@ -2685,10 +2693,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>-1.6</v>
@@ -2699,10 +2707,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>-1.6</v>
@@ -2713,10 +2721,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C130">
         <v>-1.6</v>
@@ -2727,10 +2735,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B131">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>-1.2</v>
@@ -2741,10 +2749,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>-1.2</v>
@@ -2755,10 +2763,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C133">
         <v>-1.2</v>
@@ -2769,10 +2777,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>-1.2</v>
@@ -2783,10 +2791,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>-1.2</v>
@@ -2797,10 +2805,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B136">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>-0.8</v>
@@ -2811,10 +2819,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>-0.8</v>
@@ -2825,10 +2833,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>-0.8</v>
@@ -2839,10 +2847,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B139">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>-0.8</v>
@@ -2853,10 +2861,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B140">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>-0.8</v>
@@ -2867,10 +2875,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B141">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C141">
         <v>-0.4</v>
@@ -2881,10 +2889,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B142">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C142">
         <v>-0.4</v>
@@ -2895,10 +2903,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>-0.4</v>
@@ -2909,10 +2917,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>-0.4</v>
@@ -2923,10 +2931,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>-0.4</v>
@@ -2937,10 +2945,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B146">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>-2</v>
@@ -2951,10 +2959,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B147">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>-2</v>
@@ -2965,10 +2973,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B148">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>-2</v>
@@ -2979,10 +2987,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B149">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>-2</v>
@@ -2993,10 +3001,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B150">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>-1.6</v>
@@ -3007,10 +3015,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B151">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>-1.6</v>
@@ -3021,10 +3029,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B152">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>-1.6</v>
@@ -3035,10 +3043,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B153">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>-1.6</v>
@@ -3049,10 +3057,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B154">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>-1.6</v>
@@ -3063,10 +3071,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B155">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>-1.2</v>
@@ -3077,10 +3085,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B156">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>-1.2</v>
@@ -3091,10 +3099,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B157">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>-1.2</v>
@@ -3105,10 +3113,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B158">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C158">
         <v>-1.2</v>
@@ -3119,10 +3127,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B159">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>-1.2</v>
@@ -3133,10 +3141,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B160">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>-0.8</v>
@@ -3147,10 +3155,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B161">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>-0.8</v>
@@ -3161,10 +3169,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B162">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>-0.8</v>
@@ -3175,10 +3183,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B163">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>-0.8</v>
@@ -3189,10 +3197,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B164">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>-0.8</v>
@@ -3203,10 +3211,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B165">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>-0.4</v>
@@ -3217,10 +3225,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B166">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>-0.4</v>
@@ -3231,10 +3239,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B167">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>-0.4</v>
@@ -3245,10 +3253,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B168">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C168">
         <v>-0.4</v>
@@ -3259,10 +3267,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B169">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>-0.4</v>
@@ -3273,10 +3281,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B170">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C170">
         <v>-2</v>
@@ -3287,10 +3295,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B171">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>-2</v>
@@ -3301,10 +3309,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B172">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C172">
         <v>-2</v>
@@ -3315,10 +3323,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B173">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>-2</v>
@@ -3329,10 +3337,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B174">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C174">
         <v>-1.6</v>
@@ -3343,10 +3351,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B175">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C175">
         <v>-1.6</v>
@@ -3357,10 +3365,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B176">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>-1.6</v>
@@ -3371,10 +3379,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B177">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>-1.6</v>
@@ -3385,10 +3393,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B178">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C178">
         <v>-1.6</v>
@@ -3399,10 +3407,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B179">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C179">
         <v>-1.2</v>
@@ -3413,10 +3421,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B180">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C180">
         <v>-1.2</v>
@@ -3427,10 +3435,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B181">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>-1.2</v>
@@ -3441,10 +3449,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B182">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C182">
         <v>-1.2</v>
@@ -3455,10 +3463,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B183">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C183">
         <v>-1.2</v>
@@ -3469,10 +3477,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B184">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C184">
         <v>-0.8</v>
@@ -3483,10 +3491,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B185">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C185">
         <v>-0.8</v>
@@ -3497,10 +3505,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B186">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>-0.8</v>
@@ -3511,10 +3519,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B187">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>-0.8</v>
@@ -3525,10 +3533,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B188">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C188">
         <v>-0.8</v>
@@ -3539,10 +3547,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B189">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C189">
         <v>-0.4</v>
@@ -3553,10 +3561,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B190">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C190">
         <v>-0.4</v>
@@ -3567,10 +3575,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B191">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C191">
         <v>-0.4</v>
@@ -3581,10 +3589,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B192">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C192">
         <v>-0.4</v>
@@ -3595,10 +3603,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B193">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C193">
         <v>-0.4</v>

--- a/cond-files/cond_pm1.xlsx
+++ b/cond-files/cond_pm1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor\Dropbox\Projects\pm\pm\cond-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egora\Dropbox\Projects\pm\pm\cond-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234B9EF-7AB5-46CD-8AEC-F3ADEDB9AF7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5536080-3A78-468F-A09E-4DEDC8435A1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cond_pm1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -905,13 +904,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -938,7 +937,7 @@
         <v>-2</v>
       </c>
       <c r="D2">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -952,7 +951,7 @@
         <v>-2</v>
       </c>
       <c r="D3">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -966,7 +965,7 @@
         <v>-2</v>
       </c>
       <c r="D4">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,7 +979,7 @@
         <v>-2</v>
       </c>
       <c r="D5">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -991,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1007,7 @@
         <v>-1.6</v>
       </c>
       <c r="D7">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1021,7 @@
         <v>-1.6</v>
       </c>
       <c r="D8">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1035,7 @@
         <v>-1.6</v>
       </c>
       <c r="D9">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1050,7 +1049,7 @@
         <v>-1.6</v>
       </c>
       <c r="D10">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1061,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D11">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1077,7 @@
         <v>-1.2</v>
       </c>
       <c r="D12">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,7 +1091,7 @@
         <v>-1.2</v>
       </c>
       <c r="D13">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,7 +1105,7 @@
         <v>-1.2</v>
       </c>
       <c r="D14">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1120,7 +1119,7 @@
         <v>-1.2</v>
       </c>
       <c r="D15">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D16">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1148,7 +1147,7 @@
         <v>-0.8</v>
       </c>
       <c r="D17">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1162,7 +1161,7 @@
         <v>-0.8</v>
       </c>
       <c r="D18">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,7 +1175,7 @@
         <v>-0.8</v>
       </c>
       <c r="D19">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,7 +1189,7 @@
         <v>-0.8</v>
       </c>
       <c r="D20">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D21">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,7 +1217,7 @@
         <v>-0.4</v>
       </c>
       <c r="D22">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,7 +1231,7 @@
         <v>-0.4</v>
       </c>
       <c r="D23">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1246,7 +1245,7 @@
         <v>-0.4</v>
       </c>
       <c r="D24">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,21 +1259,21 @@
         <v>-0.4</v>
       </c>
       <c r="D25">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="D26">
-        <v>-1.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,7 +1287,7 @@
         <v>-2</v>
       </c>
       <c r="D27">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,7 +1301,7 @@
         <v>-2</v>
       </c>
       <c r="D28">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,7 +1315,7 @@
         <v>-2</v>
       </c>
       <c r="D29">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1327,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D30">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,7 +1343,7 @@
         <v>-1.6</v>
       </c>
       <c r="D31">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1358,7 +1357,7 @@
         <v>-1.6</v>
       </c>
       <c r="D32">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,7 +1371,7 @@
         <v>-1.6</v>
       </c>
       <c r="D33">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,7 +1385,7 @@
         <v>-1.6</v>
       </c>
       <c r="D34">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D35">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,7 +1413,7 @@
         <v>-1.2</v>
       </c>
       <c r="D36">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,7 +1427,7 @@
         <v>-1.2</v>
       </c>
       <c r="D37">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1442,7 +1441,7 @@
         <v>-1.2</v>
       </c>
       <c r="D38">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,7 +1455,7 @@
         <v>-1.2</v>
       </c>
       <c r="D39">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D40">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,7 +1483,7 @@
         <v>-0.8</v>
       </c>
       <c r="D41">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1498,7 +1497,7 @@
         <v>-0.8</v>
       </c>
       <c r="D42">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1512,7 +1511,7 @@
         <v>-0.8</v>
       </c>
       <c r="D43">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1526,7 +1525,7 @@
         <v>-0.8</v>
       </c>
       <c r="D44">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D45">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1554,7 +1553,7 @@
         <v>-0.4</v>
       </c>
       <c r="D46">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1568,7 +1567,7 @@
         <v>-0.4</v>
       </c>
       <c r="D47">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1582,7 +1581,7 @@
         <v>-0.4</v>
       </c>
       <c r="D48">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1596,21 +1595,21 @@
         <v>-0.4</v>
       </c>
       <c r="D49">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="D50">
-        <v>-1.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,7 +1623,7 @@
         <v>-2</v>
       </c>
       <c r="D51">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1638,7 +1637,7 @@
         <v>-2</v>
       </c>
       <c r="D52">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1652,7 +1651,7 @@
         <v>-2</v>
       </c>
       <c r="D53">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D54">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,7 +1679,7 @@
         <v>-1.6</v>
       </c>
       <c r="D55">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,7 +1693,7 @@
         <v>-1.6</v>
       </c>
       <c r="D56">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1708,7 +1707,7 @@
         <v>-1.6</v>
       </c>
       <c r="D57">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1722,7 +1721,7 @@
         <v>-1.6</v>
       </c>
       <c r="D58">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D59">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1750,7 +1749,7 @@
         <v>-1.2</v>
       </c>
       <c r="D60">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1764,7 +1763,7 @@
         <v>-1.2</v>
       </c>
       <c r="D61">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1778,7 +1777,7 @@
         <v>-1.2</v>
       </c>
       <c r="D62">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1792,7 +1791,7 @@
         <v>-1.2</v>
       </c>
       <c r="D63">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D64">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,7 +1819,7 @@
         <v>-0.8</v>
       </c>
       <c r="D65">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1834,7 +1833,7 @@
         <v>-0.8</v>
       </c>
       <c r="D66">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1848,7 +1847,7 @@
         <v>-0.8</v>
       </c>
       <c r="D67">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1862,7 +1861,7 @@
         <v>-0.8</v>
       </c>
       <c r="D68">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1873,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D69">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1890,7 +1889,7 @@
         <v>-0.4</v>
       </c>
       <c r="D70">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1904,7 +1903,7 @@
         <v>-0.4</v>
       </c>
       <c r="D71">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1918,7 +1917,7 @@
         <v>-0.4</v>
       </c>
       <c r="D72">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,21 +1931,21 @@
         <v>-0.4</v>
       </c>
       <c r="D73">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="D74">
-        <v>-1.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1960,7 +1959,7 @@
         <v>-2</v>
       </c>
       <c r="D75">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1974,7 +1973,7 @@
         <v>-2</v>
       </c>
       <c r="D76">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1988,7 +1987,7 @@
         <v>-2</v>
       </c>
       <c r="D77">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1999,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D78">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2016,7 +2015,7 @@
         <v>-1.6</v>
       </c>
       <c r="D79">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,7 +2029,7 @@
         <v>-1.6</v>
       </c>
       <c r="D80">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2044,7 +2043,7 @@
         <v>-1.6</v>
       </c>
       <c r="D81">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2058,7 +2057,7 @@
         <v>-1.6</v>
       </c>
       <c r="D82">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2069,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D83">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2086,7 +2085,7 @@
         <v>-1.2</v>
       </c>
       <c r="D84">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2100,7 +2099,7 @@
         <v>-1.2</v>
       </c>
       <c r="D85">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2114,7 +2113,7 @@
         <v>-1.2</v>
       </c>
       <c r="D86">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,7 +2127,7 @@
         <v>-1.2</v>
       </c>
       <c r="D87">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2139,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D88">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2156,7 +2155,7 @@
         <v>-0.8</v>
       </c>
       <c r="D89">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2170,7 +2169,7 @@
         <v>-0.8</v>
       </c>
       <c r="D90">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2184,7 +2183,7 @@
         <v>-0.8</v>
       </c>
       <c r="D91">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2198,7 +2197,7 @@
         <v>-0.8</v>
       </c>
       <c r="D92">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2209,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D93">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2226,7 +2225,7 @@
         <v>-0.4</v>
       </c>
       <c r="D94">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,7 +2239,7 @@
         <v>-0.4</v>
       </c>
       <c r="D95">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2254,7 +2253,7 @@
         <v>-0.4</v>
       </c>
       <c r="D96">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2268,21 +2267,21 @@
         <v>-0.4</v>
       </c>
       <c r="D97">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="D98">
-        <v>-1.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2296,7 +2295,7 @@
         <v>-2</v>
       </c>
       <c r="D99">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,7 +2309,7 @@
         <v>-2</v>
       </c>
       <c r="D100">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2324,7 +2323,7 @@
         <v>-2</v>
       </c>
       <c r="D101">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2335,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D102">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,7 +2351,7 @@
         <v>-1.6</v>
       </c>
       <c r="D103">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2366,7 +2365,7 @@
         <v>-1.6</v>
       </c>
       <c r="D104">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2380,7 +2379,7 @@
         <v>-1.6</v>
       </c>
       <c r="D105">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2394,7 +2393,7 @@
         <v>-1.6</v>
       </c>
       <c r="D106">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2405,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D107">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2422,7 +2421,7 @@
         <v>-1.2</v>
       </c>
       <c r="D108">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2436,7 +2435,7 @@
         <v>-1.2</v>
       </c>
       <c r="D109">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2450,7 +2449,7 @@
         <v>-1.2</v>
       </c>
       <c r="D110">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2464,7 +2463,7 @@
         <v>-1.2</v>
       </c>
       <c r="D111">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2475,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D112">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2492,7 +2491,7 @@
         <v>-0.8</v>
       </c>
       <c r="D113">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2506,7 +2505,7 @@
         <v>-0.8</v>
       </c>
       <c r="D114">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2520,7 +2519,7 @@
         <v>-0.8</v>
       </c>
       <c r="D115">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2534,7 +2533,7 @@
         <v>-0.8</v>
       </c>
       <c r="D116">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D117">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2562,7 +2561,7 @@
         <v>-0.4</v>
       </c>
       <c r="D118">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2576,7 +2575,7 @@
         <v>-0.4</v>
       </c>
       <c r="D119">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2590,7 +2589,7 @@
         <v>-0.4</v>
       </c>
       <c r="D120">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2604,21 +2603,21 @@
         <v>-0.4</v>
       </c>
       <c r="D121">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="D122">
-        <v>-1.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2632,7 +2631,7 @@
         <v>-2</v>
       </c>
       <c r="D123">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2646,7 +2645,7 @@
         <v>-2</v>
       </c>
       <c r="D124">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2660,7 +2659,7 @@
         <v>-2</v>
       </c>
       <c r="D125">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2671,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D126">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2688,7 +2687,7 @@
         <v>-1.6</v>
       </c>
       <c r="D127">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2702,7 +2701,7 @@
         <v>-1.6</v>
       </c>
       <c r="D128">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2716,7 +2715,7 @@
         <v>-1.6</v>
       </c>
       <c r="D129">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2730,7 +2729,7 @@
         <v>-1.6</v>
       </c>
       <c r="D130">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2741,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D131">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2758,7 +2757,7 @@
         <v>-1.2</v>
       </c>
       <c r="D132">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2772,7 +2771,7 @@
         <v>-1.2</v>
       </c>
       <c r="D133">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2786,7 +2785,7 @@
         <v>-1.2</v>
       </c>
       <c r="D134">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,7 +2799,7 @@
         <v>-1.2</v>
       </c>
       <c r="D135">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2811,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D136">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2828,7 +2827,7 @@
         <v>-0.8</v>
       </c>
       <c r="D137">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2842,7 +2841,7 @@
         <v>-0.8</v>
       </c>
       <c r="D138">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2856,7 +2855,7 @@
         <v>-0.8</v>
       </c>
       <c r="D139">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2870,7 +2869,7 @@
         <v>-0.8</v>
       </c>
       <c r="D140">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2881,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D141">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2898,7 +2897,7 @@
         <v>-0.4</v>
       </c>
       <c r="D142">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2912,7 +2911,7 @@
         <v>-0.4</v>
       </c>
       <c r="D143">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2926,7 +2925,7 @@
         <v>-0.4</v>
       </c>
       <c r="D144">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2940,21 +2939,21 @@
         <v>-0.4</v>
       </c>
       <c r="D145">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="D146">
-        <v>-1.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2968,7 +2967,7 @@
         <v>-2</v>
       </c>
       <c r="D147">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2982,7 +2981,7 @@
         <v>-2</v>
       </c>
       <c r="D148">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2996,7 +2995,7 @@
         <v>-2</v>
       </c>
       <c r="D149">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3007,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D150">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3024,7 +3023,7 @@
         <v>-1.6</v>
       </c>
       <c r="D151">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3038,7 +3037,7 @@
         <v>-1.6</v>
       </c>
       <c r="D152">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3052,7 +3051,7 @@
         <v>-1.6</v>
       </c>
       <c r="D153">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3066,7 +3065,7 @@
         <v>-1.6</v>
       </c>
       <c r="D154">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3077,10 +3076,10 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D155">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3094,7 +3093,7 @@
         <v>-1.2</v>
       </c>
       <c r="D156">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3108,7 +3107,7 @@
         <v>-1.2</v>
       </c>
       <c r="D157">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3122,7 +3121,7 @@
         <v>-1.2</v>
       </c>
       <c r="D158">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3136,7 +3135,7 @@
         <v>-1.2</v>
       </c>
       <c r="D159">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3147,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D160">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3164,7 +3163,7 @@
         <v>-0.8</v>
       </c>
       <c r="D161">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3178,7 +3177,7 @@
         <v>-0.8</v>
       </c>
       <c r="D162">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3192,7 +3191,7 @@
         <v>-0.8</v>
       </c>
       <c r="D163">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3206,7 +3205,7 @@
         <v>-0.8</v>
       </c>
       <c r="D164">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3217,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D165">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3234,7 +3233,7 @@
         <v>-0.4</v>
       </c>
       <c r="D166">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3248,7 +3247,7 @@
         <v>-0.4</v>
       </c>
       <c r="D167">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3262,7 +3261,7 @@
         <v>-0.4</v>
       </c>
       <c r="D168">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3276,21 +3275,21 @@
         <v>-0.4</v>
       </c>
       <c r="D169">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="D170">
-        <v>-1.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3304,7 +3303,7 @@
         <v>-2</v>
       </c>
       <c r="D171">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3318,7 +3317,7 @@
         <v>-2</v>
       </c>
       <c r="D172">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3332,7 +3331,7 @@
         <v>-2</v>
       </c>
       <c r="D173">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3343,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="D174">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3360,7 +3359,7 @@
         <v>-1.6</v>
       </c>
       <c r="D175">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3374,7 +3373,7 @@
         <v>-1.6</v>
       </c>
       <c r="D176">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3388,7 +3387,7 @@
         <v>-1.6</v>
       </c>
       <c r="D177">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3402,7 +3401,7 @@
         <v>-1.6</v>
       </c>
       <c r="D178">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3413,10 +3412,10 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D179">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3430,7 +3429,7 @@
         <v>-1.2</v>
       </c>
       <c r="D180">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3444,7 +3443,7 @@
         <v>-1.2</v>
       </c>
       <c r="D181">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3458,7 +3457,7 @@
         <v>-1.2</v>
       </c>
       <c r="D182">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3472,7 +3471,7 @@
         <v>-1.2</v>
       </c>
       <c r="D183">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3483,10 +3482,10 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D184">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3500,7 +3499,7 @@
         <v>-0.8</v>
       </c>
       <c r="D185">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3514,7 +3513,7 @@
         <v>-0.8</v>
       </c>
       <c r="D186">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3528,7 +3527,7 @@
         <v>-0.8</v>
       </c>
       <c r="D187">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3542,7 +3541,7 @@
         <v>-0.8</v>
       </c>
       <c r="D188">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3553,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D189">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3570,7 +3569,7 @@
         <v>-0.4</v>
       </c>
       <c r="D190">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3584,7 +3583,7 @@
         <v>-0.4</v>
       </c>
       <c r="D191">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3598,7 +3597,7 @@
         <v>-0.4</v>
       </c>
       <c r="D192">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3612,6 +3611,20 @@
         <v>-0.4</v>
       </c>
       <c r="D193">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>-0.4</v>
+      </c>
+      <c r="D194">
         <v>-0.4</v>
       </c>
     </row>

--- a/cond-files/cond_pm1.xlsx
+++ b/cond-files/cond_pm1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egora\Dropbox\Projects\pm\pm\cond-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5536080-3A78-468F-A09E-4DEDC8435A1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D695AA-16A8-4CC3-A5C9-6C9BF2175A4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>stim1_c</t>
   </si>
@@ -38,7 +38,10 @@
     <t>SOA</t>
   </si>
   <si>
-    <t>angle_diff</t>
+    <t>stim1_oriR</t>
+  </si>
+  <si>
+    <t>stim2_oriR</t>
   </si>
 </sst>
 </file>
@@ -904,15 +907,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -920,13 +923,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -934,13 +940,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E2">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -948,13 +957,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -962,13 +974,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -976,13 +991,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E5">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -990,13 +1008,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1004,13 +1025,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E7">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1018,13 +1042,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E8">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1032,13 +1059,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1046,13 +1076,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1060,13 +1093,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E11">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1074,13 +1110,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E12">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1088,13 +1127,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E13">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1102,13 +1144,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E14">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1116,209 +1161,254 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E16">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E18">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E20">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E21">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E22">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E23">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E25">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E26">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E27">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E28">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1326,13 +1416,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E30">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1340,13 +1433,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E31">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1354,13 +1450,16 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E32">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1368,13 +1467,16 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1382,13 +1484,16 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E34">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1396,13 +1501,16 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E35">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1410,13 +1518,16 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E36">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1424,13 +1535,16 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E37">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1438,13 +1552,16 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1452,13 +1569,16 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E39">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1466,13 +1586,16 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E40">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1480,13 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1494,13 +1620,16 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>-1.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1508,209 +1637,254 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E43">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E44">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E45">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E46">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E47">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E48">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E49">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E50">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E51">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E53">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E54">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>-1.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E57">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1718,13 +1892,16 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E58">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1732,13 +1909,16 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E59">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1746,13 +1926,16 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E60">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1760,13 +1943,16 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E61">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1774,13 +1960,16 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E62">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1788,13 +1977,16 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E63">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1802,13 +1994,16 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E64">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
@@ -1816,13 +2011,16 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E65">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1830,13 +2028,16 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E66">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -1844,13 +2045,16 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6</v>
       </c>
@@ -1858,13 +2062,16 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E68">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6</v>
       </c>
@@ -1872,13 +2079,16 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E69">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6</v>
       </c>
@@ -1886,13 +2096,16 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E70">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6</v>
       </c>
@@ -1900,209 +2113,254 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E71">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E73">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E74">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E75">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E76">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E77">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E78">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E79">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E80">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E82">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E83">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E84">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E85">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>12</v>
       </c>
@@ -2110,13 +2368,16 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12</v>
       </c>
@@ -2124,13 +2385,16 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E87">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>12</v>
       </c>
@@ -2138,13 +2402,16 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E88">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12</v>
       </c>
@@ -2152,13 +2419,16 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E89">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>12</v>
       </c>
@@ -2166,13 +2436,16 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E90">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>12</v>
       </c>
@@ -2180,13 +2453,16 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E91">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>12</v>
       </c>
@@ -2194,13 +2470,16 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>12</v>
       </c>
@@ -2208,13 +2487,16 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E93">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>12</v>
       </c>
@@ -2222,13 +2504,16 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E94">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>12</v>
       </c>
@@ -2236,13 +2521,16 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E95">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>12</v>
       </c>
@@ -2250,13 +2538,16 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>12</v>
       </c>
@@ -2264,13 +2555,16 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E97">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>12</v>
       </c>
@@ -2278,1354 +2572,268 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E98">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+      <c r="E99">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E101">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E102">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E103">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E104">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E105">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E107">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E108">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="E109">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="E111">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.6</v>
+      </c>
+      <c r="E112">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>-0.8</v>
-      </c>
-      <c r="D114">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>-0.8</v>
-      </c>
-      <c r="D115">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>-0.8</v>
-      </c>
-      <c r="D116">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>0</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>-0.8</v>
-      </c>
-      <c r="D117">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>-0.4</v>
-      </c>
-      <c r="D118">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>0</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>-0.4</v>
-      </c>
-      <c r="D119">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>0</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>-0.4</v>
-      </c>
-      <c r="D120">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>0</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>-0.4</v>
-      </c>
-      <c r="D121">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>-0.4</v>
-      </c>
-      <c r="D122">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>2</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>-2</v>
-      </c>
-      <c r="D123">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>2</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>-2</v>
-      </c>
-      <c r="D124">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>-2</v>
-      </c>
-      <c r="D125">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>2</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>-2</v>
-      </c>
-      <c r="D126">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>-1.6</v>
-      </c>
-      <c r="D127">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>-1.6</v>
-      </c>
-      <c r="D128">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>2</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>-1.6</v>
-      </c>
-      <c r="D129">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>2</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>-1.6</v>
-      </c>
-      <c r="D130">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>2</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>-1.6</v>
-      </c>
-      <c r="D131">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>2</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>-1.2</v>
-      </c>
-      <c r="D132">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>2</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>-1.2</v>
-      </c>
-      <c r="D133">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>2</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>-1.2</v>
-      </c>
-      <c r="D134">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>2</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>-1.2</v>
-      </c>
-      <c r="D135">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>2</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>-1.2</v>
-      </c>
-      <c r="D136">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>2</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>-0.8</v>
-      </c>
-      <c r="D137">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>2</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>-0.8</v>
-      </c>
-      <c r="D138">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>2</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>-0.8</v>
-      </c>
-      <c r="D139">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>2</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>-0.8</v>
-      </c>
-      <c r="D140">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>2</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <v>-0.8</v>
-      </c>
-      <c r="D141">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>2</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>-0.4</v>
-      </c>
-      <c r="D142">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>2</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <v>-0.4</v>
-      </c>
-      <c r="D143">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>2</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>-0.4</v>
-      </c>
-      <c r="D144">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>2</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>-0.4</v>
-      </c>
-      <c r="D145">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>2</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>-0.4</v>
-      </c>
-      <c r="D146">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>6</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>-2</v>
-      </c>
-      <c r="D147">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>6</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>-2</v>
-      </c>
-      <c r="D148">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>6</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149">
-        <v>-2</v>
-      </c>
-      <c r="D149">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>6</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
-        <v>-2</v>
-      </c>
-      <c r="D150">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>6</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>-1.6</v>
-      </c>
-      <c r="D151">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>6</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>-1.6</v>
-      </c>
-      <c r="D152">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>6</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>-1.6</v>
-      </c>
-      <c r="D153">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>6</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>-1.6</v>
-      </c>
-      <c r="D154">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>6</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>-1.6</v>
-      </c>
-      <c r="D155">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>6</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>-1.2</v>
-      </c>
-      <c r="D156">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>6</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>-1.2</v>
-      </c>
-      <c r="D157">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>6</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>-1.2</v>
-      </c>
-      <c r="D158">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>6</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>-1.2</v>
-      </c>
-      <c r="D159">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>6</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>-1.2</v>
-      </c>
-      <c r="D160">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>6</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>-0.8</v>
-      </c>
-      <c r="D161">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>6</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>-0.8</v>
-      </c>
-      <c r="D162">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>6</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>-0.8</v>
-      </c>
-      <c r="D163">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>6</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164">
-        <v>-0.8</v>
-      </c>
-      <c r="D164">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>6</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>-0.8</v>
-      </c>
-      <c r="D165">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>6</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>-0.4</v>
-      </c>
-      <c r="D166">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>6</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>-0.4</v>
-      </c>
-      <c r="D167">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>6</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>-0.4</v>
-      </c>
-      <c r="D168">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>6</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169">
-        <v>-0.4</v>
-      </c>
-      <c r="D169">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>6</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170">
-        <v>-0.4</v>
-      </c>
-      <c r="D170">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>12</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>-2</v>
-      </c>
-      <c r="D171">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>12</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172">
-        <v>-2</v>
-      </c>
-      <c r="D172">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>12</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-      <c r="C173">
-        <v>-2</v>
-      </c>
-      <c r="D173">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>12</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174">
-        <v>-2</v>
-      </c>
-      <c r="D174">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>12</v>
-      </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-      <c r="C175">
-        <v>-1.6</v>
-      </c>
-      <c r="D175">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>12</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176">
-        <v>-1.6</v>
-      </c>
-      <c r="D176">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>12</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177">
-        <v>-1.6</v>
-      </c>
-      <c r="D177">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>12</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178">
-        <v>-1.6</v>
-      </c>
-      <c r="D178">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>12</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179">
-        <v>-1.6</v>
-      </c>
-      <c r="D179">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>12</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180">
-        <v>-1.2</v>
-      </c>
-      <c r="D180">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>12</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181">
-        <v>-1.2</v>
-      </c>
-      <c r="D181">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>12</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182">
-        <v>-1.2</v>
-      </c>
-      <c r="D182">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>12</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183">
-        <v>-1.2</v>
-      </c>
-      <c r="D183">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>12</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184">
-        <v>-1.2</v>
-      </c>
-      <c r="D184">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>12</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185">
-        <v>-0.8</v>
-      </c>
-      <c r="D185">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>12</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186">
-        <v>-0.8</v>
-      </c>
-      <c r="D186">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>12</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187">
-        <v>-0.8</v>
-      </c>
-      <c r="D187">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>12</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>-0.8</v>
-      </c>
-      <c r="D188">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>12</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189">
-        <v>-0.8</v>
-      </c>
-      <c r="D189">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>12</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190">
-        <v>-0.4</v>
-      </c>
-      <c r="D190">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>12</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191">
-        <v>-0.4</v>
-      </c>
-      <c r="D191">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>12</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192">
-        <v>-0.4</v>
-      </c>
-      <c r="D192">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>12</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>-0.4</v>
-      </c>
-      <c r="D193">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>12</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194">
-        <v>-0.4</v>
-      </c>
-      <c r="D194">
-        <v>-0.4</v>
+        <v>-0.8</v>
+      </c>
+      <c r="E113">
+        <v>-1.2</v>
       </c>
     </row>
   </sheetData>

--- a/cond-files/cond_pm1.xlsx
+++ b/cond-files/cond_pm1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egora\Dropbox\Projects\pm\pm\cond-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D695AA-16A8-4CC3-A5C9-6C9BF2175A4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE867881-115A-472B-A7FF-C2CE468DB1B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="7">
   <si>
     <t>stim1_c</t>
   </si>
@@ -38,10 +38,16 @@
     <t>SOA</t>
   </si>
   <si>
-    <t>stim1_oriR</t>
+    <t>stim1_ori</t>
   </si>
   <si>
-    <t>stim2_oriR</t>
+    <t>stim2_ori</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -907,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -936,65 +942,65 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E2">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E3">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E4">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E5">
         <v>-0.8</v>
@@ -1004,48 +1010,48 @@
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E6">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
       <c r="D7">
         <v>-1.6</v>
       </c>
       <c r="E7">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E8">
         <v>-1.2</v>
@@ -1055,28 +1061,28 @@
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E9">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
       <c r="D10">
         <v>-1.2</v>
@@ -1089,11 +1095,11 @@
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
       <c r="D11">
         <v>-1.2</v>
@@ -1106,82 +1112,82 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
       <c r="D12">
         <v>-1.2</v>
       </c>
       <c r="E12">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="E13">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="E14">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
       <c r="D15">
         <v>-0.8</v>
       </c>
       <c r="E15">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E16">
         <v>-1.2</v>
@@ -1191,62 +1197,62 @@
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E17">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E18">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E19">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
       </c>
       <c r="D20">
         <v>-2</v>
@@ -1259,133 +1265,133 @@
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E21">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E22">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E23">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E24">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E25">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
       </c>
       <c r="D26">
         <v>-1.2</v>
       </c>
       <c r="E26">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="E27">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="E28">
         <v>-1.2</v>
@@ -1395,82 +1401,82 @@
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="E29">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E30">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E31">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E32">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E33">
         <v>-0.8</v>
@@ -1478,50 +1484,50 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
       </c>
       <c r="D34">
         <v>-2</v>
       </c>
       <c r="E34">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E35">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E36">
         <v>-1.2</v>
@@ -1529,33 +1535,33 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E37">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E38">
         <v>-2</v>
@@ -1563,16 +1569,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E39">
         <v>-1.6</v>
@@ -1580,81 +1586,81 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E40">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E41">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="E42">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="E43">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
       </c>
       <c r="D44">
         <v>-1.2</v>
@@ -1665,67 +1671,67 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
       </c>
       <c r="D45">
         <v>-1.2</v>
       </c>
       <c r="E45">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E46">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E47">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
       <c r="E48">
         <v>-1.2</v>
@@ -1733,132 +1739,132 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="E49">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E50">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E51">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E52">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E53">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E54">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E55">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
       </c>
       <c r="D56">
         <v>-1.6</v>
@@ -1869,81 +1875,81 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E57">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
       </c>
       <c r="D58">
         <v>-1.2</v>
       </c>
       <c r="E58">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>6</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
       </c>
       <c r="D59">
         <v>-1.2</v>
       </c>
       <c r="E59">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
       </c>
       <c r="D60">
         <v>-1.2</v>
       </c>
       <c r="E60">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
       </c>
       <c r="D61">
         <v>-1.2</v>
@@ -1954,47 +1960,47 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
       <c r="E62">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="E63">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
       </c>
       <c r="D64">
         <v>-0.8</v>
@@ -2005,33 +2011,33 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E65">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E66">
         <v>-2</v>
@@ -2039,16 +2045,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E67">
         <v>-1.6</v>
@@ -2056,84 +2062,84 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>6</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E68">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
       </c>
       <c r="D69">
         <v>-2</v>
       </c>
       <c r="E69">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>6</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
       </c>
       <c r="D70">
         <v>-1.6</v>
       </c>
       <c r="E70">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>6</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E71">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>6</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E72">
         <v>-1.2</v>
@@ -2141,67 +2147,67 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>6</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E73">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>6</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
       </c>
       <c r="D74">
         <v>-1.2</v>
       </c>
       <c r="E74">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
       </c>
       <c r="D75">
         <v>-1.2</v>
       </c>
       <c r="E75">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="E76">
         <v>-1.2</v>
@@ -2209,135 +2215,135 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>6</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="E77">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>6</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
       </c>
       <c r="D78">
         <v>-0.8</v>
       </c>
       <c r="E78">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>6</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E79">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>6</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E80">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>6</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E81">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>6</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E82">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>6</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
       </c>
       <c r="D83">
         <v>-2</v>
       </c>
       <c r="E83">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>6</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E84">
         <v>-1.2</v>
@@ -2345,84 +2351,84 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>6</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E85">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>12</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E86">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>12</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E87">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>12</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E88">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>12</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E89">
         <v>-0.8</v>
@@ -2430,50 +2436,50 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>12</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="E90">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>12</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="E91">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>12</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="E92">
         <v>-1.2</v>
@@ -2481,33 +2487,33 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>12</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
       </c>
       <c r="D93">
         <v>-1.2</v>
       </c>
       <c r="E93">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>12</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E94">
         <v>-2</v>
@@ -2515,16 +2521,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>12</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E95">
         <v>-1.6</v>
@@ -2532,84 +2538,84 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>12</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E96">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>12</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
       <c r="E97">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>12</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E98">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>12</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E99">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>12</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E100">
         <v>-1.2</v>
@@ -2617,67 +2623,67 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>12</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E101">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>12</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E102">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>12</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
       </c>
       <c r="D103">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E103">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>12</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E104">
         <v>-1.2</v>
@@ -2685,135 +2691,135 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>12</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
       </c>
       <c r="D105">
         <v>-1.6</v>
       </c>
       <c r="E105">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>12</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="E106">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>12</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
       </c>
       <c r="D107">
         <v>-1.2</v>
       </c>
       <c r="E107">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>12</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
       </c>
       <c r="D108">
         <v>-1.2</v>
       </c>
       <c r="E108">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>12</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
       </c>
       <c r="D109">
         <v>-1.2</v>
       </c>
       <c r="E109">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>12</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E110">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>12</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
       </c>
       <c r="D111">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
       <c r="E111">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>12</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="E112">
         <v>-1.2</v>
@@ -2821,19 +2827,2467 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>12</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
       </c>
       <c r="D113">
         <v>-0.8</v>
       </c>
       <c r="E113">
-        <v>-1.2</v>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>-2</v>
+      </c>
+      <c r="E114">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>-2</v>
+      </c>
+      <c r="E115">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>-2</v>
+      </c>
+      <c r="E116">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>-2</v>
+      </c>
+      <c r="E117">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>-1.6</v>
+      </c>
+      <c r="E118">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>-1.6</v>
+      </c>
+      <c r="E119">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>-1.6</v>
+      </c>
+      <c r="E120">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>-1.6</v>
+      </c>
+      <c r="E121">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>-1.2</v>
+      </c>
+      <c r="E122">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123">
+        <v>-1.2</v>
+      </c>
+      <c r="E123">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>-1.2</v>
+      </c>
+      <c r="E124">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>-1.2</v>
+      </c>
+      <c r="E125">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>-0.8</v>
+      </c>
+      <c r="E126">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>-0.8</v>
+      </c>
+      <c r="E127">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>-0.8</v>
+      </c>
+      <c r="E128">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>-0.8</v>
+      </c>
+      <c r="E129">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>-2</v>
+      </c>
+      <c r="E130">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>-2</v>
+      </c>
+      <c r="E131">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>-2</v>
+      </c>
+      <c r="E132">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>-2</v>
+      </c>
+      <c r="E133">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>-1.6</v>
+      </c>
+      <c r="E134">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>-1.6</v>
+      </c>
+      <c r="E135">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>-1.6</v>
+      </c>
+      <c r="E136">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>-1.6</v>
+      </c>
+      <c r="E137">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>-1.2</v>
+      </c>
+      <c r="E138">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>-1.2</v>
+      </c>
+      <c r="E139">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>-1.2</v>
+      </c>
+      <c r="E140">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>-1.2</v>
+      </c>
+      <c r="E141">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>-0.8</v>
+      </c>
+      <c r="E142">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>-0.8</v>
+      </c>
+      <c r="E143">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>-0.8</v>
+      </c>
+      <c r="E144">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>-0.8</v>
+      </c>
+      <c r="E145">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>-2</v>
+      </c>
+      <c r="E146">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>-2</v>
+      </c>
+      <c r="E147">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>-2</v>
+      </c>
+      <c r="E148">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>-2</v>
+      </c>
+      <c r="E149">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>-1.6</v>
+      </c>
+      <c r="E150">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>-1.6</v>
+      </c>
+      <c r="E151">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>-1.6</v>
+      </c>
+      <c r="E152">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>-1.6</v>
+      </c>
+      <c r="E153">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>-1.2</v>
+      </c>
+      <c r="E154">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>-1.2</v>
+      </c>
+      <c r="E155">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>-1.2</v>
+      </c>
+      <c r="E156">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>-1.2</v>
+      </c>
+      <c r="E157">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>-0.8</v>
+      </c>
+      <c r="E158">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>-0.8</v>
+      </c>
+      <c r="E159">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>-0.8</v>
+      </c>
+      <c r="E160">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>-0.8</v>
+      </c>
+      <c r="E161">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>-2</v>
+      </c>
+      <c r="E162">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>-2</v>
+      </c>
+      <c r="E163">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>-2</v>
+      </c>
+      <c r="E164">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>-2</v>
+      </c>
+      <c r="E165">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>-1.6</v>
+      </c>
+      <c r="E166">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>-1.6</v>
+      </c>
+      <c r="E167">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>-1.6</v>
+      </c>
+      <c r="E168">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169">
+        <v>-1.6</v>
+      </c>
+      <c r="E169">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170">
+        <v>-1.2</v>
+      </c>
+      <c r="E170">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>-1.2</v>
+      </c>
+      <c r="E171">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172">
+        <v>-1.2</v>
+      </c>
+      <c r="E172">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>-1.2</v>
+      </c>
+      <c r="E173">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>-0.8</v>
+      </c>
+      <c r="E174">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175">
+        <v>-0.8</v>
+      </c>
+      <c r="E175">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>-0.8</v>
+      </c>
+      <c r="E176">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>-0.8</v>
+      </c>
+      <c r="E177">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>-2</v>
+      </c>
+      <c r="E178">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>-2</v>
+      </c>
+      <c r="E179">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>-2</v>
+      </c>
+      <c r="E180">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>-2</v>
+      </c>
+      <c r="E181">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>-1.6</v>
+      </c>
+      <c r="E182">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>-1.6</v>
+      </c>
+      <c r="E183">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>-1.6</v>
+      </c>
+      <c r="E184">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>-1.6</v>
+      </c>
+      <c r="E185">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>-1.2</v>
+      </c>
+      <c r="E186">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>-1.2</v>
+      </c>
+      <c r="E187">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>-1.2</v>
+      </c>
+      <c r="E188">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>-1.2</v>
+      </c>
+      <c r="E189">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>-0.8</v>
+      </c>
+      <c r="E190">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <v>-0.8</v>
+      </c>
+      <c r="E191">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>-0.8</v>
+      </c>
+      <c r="E192">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>-0.8</v>
+      </c>
+      <c r="E193">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>12</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194">
+        <v>-2</v>
+      </c>
+      <c r="E194">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>12</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>-2</v>
+      </c>
+      <c r="E195">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>12</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>-2</v>
+      </c>
+      <c r="E196">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>12</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>-2</v>
+      </c>
+      <c r="E197">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>-1.6</v>
+      </c>
+      <c r="E198">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199">
+        <v>-1.6</v>
+      </c>
+      <c r="E199">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>12</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200">
+        <v>-1.6</v>
+      </c>
+      <c r="E200">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>12</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201">
+        <v>-1.6</v>
+      </c>
+      <c r="E201">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>12</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202">
+        <v>-1.2</v>
+      </c>
+      <c r="E202">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>12</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>-1.2</v>
+      </c>
+      <c r="E203">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>12</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>-1.2</v>
+      </c>
+      <c r="E204">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>12</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>-1.2</v>
+      </c>
+      <c r="E205">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>12</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <v>-0.8</v>
+      </c>
+      <c r="E206">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>12</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207">
+        <v>-0.8</v>
+      </c>
+      <c r="E207">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>12</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208">
+        <v>-0.8</v>
+      </c>
+      <c r="E208">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>12</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209">
+        <v>-0.8</v>
+      </c>
+      <c r="E209">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>12</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>-2</v>
+      </c>
+      <c r="E210">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>12</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211">
+        <v>-2</v>
+      </c>
+      <c r="E211">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>12</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212">
+        <v>-2</v>
+      </c>
+      <c r="E212">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>12</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213">
+        <v>-2</v>
+      </c>
+      <c r="E213">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>12</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214">
+        <v>-1.6</v>
+      </c>
+      <c r="E214">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>12</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215">
+        <v>-1.6</v>
+      </c>
+      <c r="E215">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>-1.6</v>
+      </c>
+      <c r="E216">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>12</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>-1.6</v>
+      </c>
+      <c r="E217">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>12</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218">
+        <v>-1.2</v>
+      </c>
+      <c r="E218">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>12</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>-1.2</v>
+      </c>
+      <c r="E219">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>12</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220">
+        <v>-1.2</v>
+      </c>
+      <c r="E220">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>12</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221">
+        <v>-1.2</v>
+      </c>
+      <c r="E221">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>12</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222">
+        <v>-0.8</v>
+      </c>
+      <c r="E222">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>12</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223">
+        <v>-0.8</v>
+      </c>
+      <c r="E223">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>12</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224">
+        <v>-0.8</v>
+      </c>
+      <c r="E224">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>12</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>-0.8</v>
+      </c>
+      <c r="E225">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>12</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226">
+        <v>-2</v>
+      </c>
+      <c r="E226">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227">
+        <v>-2</v>
+      </c>
+      <c r="E227">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>12</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228">
+        <v>-2</v>
+      </c>
+      <c r="E228">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>12</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229">
+        <v>-2</v>
+      </c>
+      <c r="E229">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>12</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230">
+        <v>-1.6</v>
+      </c>
+      <c r="E230">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>12</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231">
+        <v>-1.6</v>
+      </c>
+      <c r="E231">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>12</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>-1.6</v>
+      </c>
+      <c r="E232">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>12</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>-1.6</v>
+      </c>
+      <c r="E233">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>12</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234">
+        <v>-1.2</v>
+      </c>
+      <c r="E234">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>12</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235">
+        <v>-1.2</v>
+      </c>
+      <c r="E235">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>12</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236">
+        <v>-1.2</v>
+      </c>
+      <c r="E236">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>12</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237">
+        <v>-1.2</v>
+      </c>
+      <c r="E237">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>12</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238">
+        <v>-0.8</v>
+      </c>
+      <c r="E238">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>12</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239">
+        <v>-0.8</v>
+      </c>
+      <c r="E239">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>12</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240">
+        <v>-0.8</v>
+      </c>
+      <c r="E240">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>12</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241">
+        <v>-0.8</v>
+      </c>
+      <c r="E241">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>12</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242">
+        <v>-2</v>
+      </c>
+      <c r="E242">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>12</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243">
+        <v>-2</v>
+      </c>
+      <c r="E243">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>12</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <v>-2</v>
+      </c>
+      <c r="E244">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>12</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245">
+        <v>-2</v>
+      </c>
+      <c r="E245">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>12</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246">
+        <v>-1.6</v>
+      </c>
+      <c r="E246">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>12</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247">
+        <v>-1.6</v>
+      </c>
+      <c r="E247">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>12</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248">
+        <v>-1.6</v>
+      </c>
+      <c r="E248">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>12</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249">
+        <v>-1.6</v>
+      </c>
+      <c r="E249">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>12</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250">
+        <v>-1.2</v>
+      </c>
+      <c r="E250">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>12</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>-1.2</v>
+      </c>
+      <c r="E251">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>12</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252">
+        <v>-1.2</v>
+      </c>
+      <c r="E252">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253">
+        <v>-1.2</v>
+      </c>
+      <c r="E253">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>12</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254">
+        <v>-0.8</v>
+      </c>
+      <c r="E254">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>12</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255">
+        <v>-0.8</v>
+      </c>
+      <c r="E255">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>12</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>-0.8</v>
+      </c>
+      <c r="E256">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <v>-0.8</v>
+      </c>
+      <c r="E257">
+        <v>-0.8</v>
       </c>
     </row>
   </sheetData>

--- a/cond-files/cond_pm1.xlsx
+++ b/cond-files/cond_pm1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egora\Dropbox\Projects\pm\pm\cond-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE867881-115A-472B-A7FF-C2CE468DB1B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED4B256-B847-404E-BD40-7F72C6A81346}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="7">
   <si>
     <t>stim1_c</t>
   </si>
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -949,10 +949,10 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E2">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -966,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E3">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E4">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,7 +1003,7 @@
         <v>-2</v>
       </c>
       <c r="E5">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E6">
         <v>-2</v>
@@ -1034,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E7">
         <v>-1.6</v>
@@ -1054,7 +1054,7 @@
         <v>-1.6</v>
       </c>
       <c r="E8">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
         <v>-1.6</v>
       </c>
       <c r="E9">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E11">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,13 +1116,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E12">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E13">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E14">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1167,13 +1167,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E15">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1184,13 +1184,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E16">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1201,13 +1201,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E17">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E18">
         <v>-2</v>
@@ -1238,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E19">
         <v>-1.6</v>
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E20">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E21">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E22">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E23">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E24">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1334,16 +1334,16 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E25">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1351,16 +1351,16 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E26">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1368,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E27">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E28">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1402,16 +1402,16 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E29">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E30">
         <v>-2</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E31">
         <v>-1.6</v>
@@ -1453,16 +1453,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E32">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1470,16 +1470,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E33">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,13 +1490,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>-2</v>
       </c>
       <c r="E34">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1507,13 +1507,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E35">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,13 +1524,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E36">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,95 +1541,95 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E37">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E38">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E39">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E40">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E41">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E42">
         <v>-2</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E43">
         <v>-1.6</v>
@@ -1654,112 +1654,112 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E44">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E45">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E46">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E47">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E48">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E49">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1768,15 +1768,15 @@
         <v>-2</v>
       </c>
       <c r="E50">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1785,15 +1785,15 @@
         <v>-2</v>
       </c>
       <c r="E51">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1802,32 +1802,32 @@
         <v>-2</v>
       </c>
       <c r="E52">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E53">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1858,160 +1858,160 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E56">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E57">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E58">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E59">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E60">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E61">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E62">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E63">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E64">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2020,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E65">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2031,13 +2031,13 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E66">
         <v>-2</v>
@@ -2048,13 +2048,13 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E67">
         <v>-1.6</v>
@@ -2065,16 +2065,16 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>-2</v>
       </c>
       <c r="E68">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2082,16 +2082,16 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>-2</v>
       </c>
       <c r="E69">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2099,16 +2099,16 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E70">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2116,16 +2116,16 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>-1.6</v>
       </c>
       <c r="E71">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2133,16 +2133,16 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>-1.6</v>
       </c>
       <c r="E72">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2150,21 +2150,21 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>-1.6</v>
       </c>
       <c r="E73">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -2173,15 +2173,15 @@
         <v>5</v>
       </c>
       <c r="D74">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E74">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -2190,15 +2190,15 @@
         <v>5</v>
       </c>
       <c r="D75">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E75">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2207,15 +2207,15 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E76">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -2224,15 +2224,15 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E77">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E78">
         <v>-2</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -2258,7 +2258,7 @@
         <v>5</v>
       </c>
       <c r="D79">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E79">
         <v>-1.6</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -2275,15 +2275,15 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E80">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -2292,32 +2292,32 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E81">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E82">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -2326,15 +2326,15 @@
         <v>6</v>
       </c>
       <c r="D83">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E83">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -2343,15 +2343,15 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E84">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -2360,15 +2360,15 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E85">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -2377,15 +2377,15 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E86">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -2394,15 +2394,15 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E87">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -2411,15 +2411,15 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E88">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2431,12 +2431,12 @@
         <v>-1.6</v>
       </c>
       <c r="E89">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2445,7 +2445,7 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E90">
         <v>-2</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -2462,7 +2462,7 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E91">
         <v>-1.6</v>
@@ -2470,109 +2470,109 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E92">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E93">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E94">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E95">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E96">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E97">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2581,15 +2581,15 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E98">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2598,15 +2598,15 @@
         <v>5</v>
       </c>
       <c r="D99">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E99">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2615,41 +2615,41 @@
         <v>5</v>
       </c>
       <c r="D100">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E100">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E101">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D102">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E102">
         <v>-2</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E103">
         <v>-1.6</v>
@@ -2674,183 +2674,183 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E104">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="E105">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E106">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E107">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E108">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E109">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E110">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
       <c r="D111">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E111">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
       </c>
       <c r="D112">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E112">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
       <c r="D113">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E113">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114">
         <v>-2</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115">
         <v>-2</v>
@@ -2878,186 +2878,186 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E116">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="E117">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118">
         <v>-1.6</v>
       </c>
       <c r="E118">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E119">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
       <c r="D120">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E120">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E121">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
       <c r="D122">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E122">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E123">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
       <c r="D124">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E124">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
       <c r="D125">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E125">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
       <c r="D126">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E126">
         <v>-2</v>
@@ -3065,16 +3065,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E127">
         <v>-1.6</v>
@@ -3082,61 +3082,61 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E128">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
       <c r="E129">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="E130">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3145,15 +3145,15 @@
         <v>-2</v>
       </c>
       <c r="E131">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3162,15 +3162,15 @@
         <v>-2</v>
       </c>
       <c r="E132">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3179,15 +3179,15 @@
         <v>-2</v>
       </c>
       <c r="E133">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3196,15 +3196,15 @@
         <v>-1.6</v>
       </c>
       <c r="E134">
-        <v>-2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3213,15 +3213,15 @@
         <v>-1.6</v>
       </c>
       <c r="E135">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3230,38 +3230,38 @@
         <v>-1.6</v>
       </c>
       <c r="E136">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
       <c r="E137">
-        <v>-0.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D138">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E138">
         <v>-2</v>
@@ -3269,16 +3269,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D139">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
       <c r="E139">
         <v>-1.6</v>
@@ -3286,2008 +3286,104 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D140">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E140">
-        <v>-1.2</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E141">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E142">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D143">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E143">
-        <v>-1.6</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E144">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D145">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E145">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>6</v>
-      </c>
-      <c r="B146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146">
-        <v>-2</v>
-      </c>
-      <c r="E146">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>6</v>
-      </c>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147">
-        <v>-2</v>
-      </c>
-      <c r="E147">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>6</v>
-      </c>
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148">
-        <v>-2</v>
-      </c>
-      <c r="E148">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>6</v>
-      </c>
-      <c r="B149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149">
-        <v>-2</v>
-      </c>
-      <c r="E149">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>6</v>
-      </c>
-      <c r="B150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150">
-        <v>-1.6</v>
-      </c>
-      <c r="E150">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>6</v>
-      </c>
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151">
-        <v>-1.6</v>
-      </c>
-      <c r="E151">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>6</v>
-      </c>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152">
-        <v>-1.6</v>
-      </c>
-      <c r="E152">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>6</v>
-      </c>
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153">
-        <v>-1.6</v>
-      </c>
-      <c r="E153">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>6</v>
-      </c>
-      <c r="B154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154">
-        <v>-1.2</v>
-      </c>
-      <c r="E154">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>6</v>
-      </c>
-      <c r="B155" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155">
-        <v>-1.2</v>
-      </c>
-      <c r="E155">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>6</v>
-      </c>
-      <c r="B156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C156" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156">
-        <v>-1.2</v>
-      </c>
-      <c r="E156">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>6</v>
-      </c>
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157">
-        <v>-1.2</v>
-      </c>
-      <c r="E157">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>6</v>
-      </c>
-      <c r="B158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158">
-        <v>-0.8</v>
-      </c>
-      <c r="E158">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>6</v>
-      </c>
-      <c r="B159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159">
-        <v>-0.8</v>
-      </c>
-      <c r="E159">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>6</v>
-      </c>
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160">
-        <v>-0.8</v>
-      </c>
-      <c r="E160">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>6</v>
-      </c>
-      <c r="B161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161">
-        <v>-0.8</v>
-      </c>
-      <c r="E161">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>6</v>
-      </c>
-      <c r="B162" t="s">
-        <v>6</v>
-      </c>
-      <c r="C162" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162">
-        <v>-2</v>
-      </c>
-      <c r="E162">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>6</v>
-      </c>
-      <c r="B163" t="s">
-        <v>6</v>
-      </c>
-      <c r="C163" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163">
-        <v>-2</v>
-      </c>
-      <c r="E163">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>6</v>
-      </c>
-      <c r="B164" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164">
-        <v>-2</v>
-      </c>
-      <c r="E164">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>6</v>
-      </c>
-      <c r="B165" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165">
-        <v>-2</v>
-      </c>
-      <c r="E165">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>6</v>
-      </c>
-      <c r="B166" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166">
-        <v>-1.6</v>
-      </c>
-      <c r="E166">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>6</v>
-      </c>
-      <c r="B167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167">
-        <v>-1.6</v>
-      </c>
-      <c r="E167">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>6</v>
-      </c>
-      <c r="B168" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168">
-        <v>-1.6</v>
-      </c>
-      <c r="E168">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>6</v>
-      </c>
-      <c r="B169" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169">
-        <v>-1.6</v>
-      </c>
-      <c r="E169">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>6</v>
-      </c>
-      <c r="B170" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170">
-        <v>-1.2</v>
-      </c>
-      <c r="E170">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>6</v>
-      </c>
-      <c r="B171" t="s">
-        <v>6</v>
-      </c>
-      <c r="C171" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171">
-        <v>-1.2</v>
-      </c>
-      <c r="E171">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>6</v>
-      </c>
-      <c r="B172" t="s">
-        <v>6</v>
-      </c>
-      <c r="C172" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172">
-        <v>-1.2</v>
-      </c>
-      <c r="E172">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>6</v>
-      </c>
-      <c r="B173" t="s">
-        <v>6</v>
-      </c>
-      <c r="C173" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173">
-        <v>-1.2</v>
-      </c>
-      <c r="E173">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>6</v>
-      </c>
-      <c r="B174" t="s">
-        <v>6</v>
-      </c>
-      <c r="C174" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174">
-        <v>-0.8</v>
-      </c>
-      <c r="E174">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>6</v>
-      </c>
-      <c r="B175" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175">
-        <v>-0.8</v>
-      </c>
-      <c r="E175">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>6</v>
-      </c>
-      <c r="B176" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176">
-        <v>-0.8</v>
-      </c>
-      <c r="E176">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>6</v>
-      </c>
-      <c r="B177" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177">
-        <v>-0.8</v>
-      </c>
-      <c r="E177">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>6</v>
-      </c>
-      <c r="B178" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178">
-        <v>-2</v>
-      </c>
-      <c r="E178">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>6</v>
-      </c>
-      <c r="B179" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179">
-        <v>-2</v>
-      </c>
-      <c r="E179">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>6</v>
-      </c>
-      <c r="B180" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180">
-        <v>-2</v>
-      </c>
-      <c r="E180">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>6</v>
-      </c>
-      <c r="B181" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" t="s">
-        <v>6</v>
-      </c>
-      <c r="D181">
-        <v>-2</v>
-      </c>
-      <c r="E181">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>6</v>
-      </c>
-      <c r="B182" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182">
-        <v>-1.6</v>
-      </c>
-      <c r="E182">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>6</v>
-      </c>
-      <c r="B183" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183">
-        <v>-1.6</v>
-      </c>
-      <c r="E183">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>6</v>
-      </c>
-      <c r="B184" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184">
-        <v>-1.6</v>
-      </c>
-      <c r="E184">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>6</v>
-      </c>
-      <c r="B185" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185">
-        <v>-1.6</v>
-      </c>
-      <c r="E185">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>6</v>
-      </c>
-      <c r="B186" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" t="s">
-        <v>6</v>
-      </c>
-      <c r="D186">
-        <v>-1.2</v>
-      </c>
-      <c r="E186">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>6</v>
-      </c>
-      <c r="B187" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187">
-        <v>-1.2</v>
-      </c>
-      <c r="E187">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>6</v>
-      </c>
-      <c r="B188" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" t="s">
-        <v>6</v>
-      </c>
-      <c r="D188">
-        <v>-1.2</v>
-      </c>
-      <c r="E188">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>6</v>
-      </c>
-      <c r="B189" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" t="s">
-        <v>6</v>
-      </c>
-      <c r="D189">
-        <v>-1.2</v>
-      </c>
-      <c r="E189">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>6</v>
-      </c>
-      <c r="B190" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190">
-        <v>-0.8</v>
-      </c>
-      <c r="E190">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>6</v>
-      </c>
-      <c r="B191" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" t="s">
-        <v>6</v>
-      </c>
-      <c r="D191">
-        <v>-0.8</v>
-      </c>
-      <c r="E191">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>6</v>
-      </c>
-      <c r="B192" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" t="s">
-        <v>6</v>
-      </c>
-      <c r="D192">
-        <v>-0.8</v>
-      </c>
-      <c r="E192">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>6</v>
-      </c>
-      <c r="B193" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193">
-        <v>-0.8</v>
-      </c>
-      <c r="E193">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>12</v>
-      </c>
-      <c r="B194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" t="s">
-        <v>5</v>
-      </c>
-      <c r="D194">
-        <v>-2</v>
-      </c>
-      <c r="E194">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>12</v>
-      </c>
-      <c r="B195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C195" t="s">
-        <v>5</v>
-      </c>
-      <c r="D195">
-        <v>-2</v>
-      </c>
-      <c r="E195">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>12</v>
-      </c>
-      <c r="B196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196">
-        <v>-2</v>
-      </c>
-      <c r="E196">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>12</v>
-      </c>
-      <c r="B197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C197" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197">
-        <v>-2</v>
-      </c>
-      <c r="E197">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>12</v>
-      </c>
-      <c r="B198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198">
-        <v>-1.6</v>
-      </c>
-      <c r="E198">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>12</v>
-      </c>
-      <c r="B199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C199" t="s">
-        <v>5</v>
-      </c>
-      <c r="D199">
-        <v>-1.6</v>
-      </c>
-      <c r="E199">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>12</v>
-      </c>
-      <c r="B200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" t="s">
-        <v>5</v>
-      </c>
-      <c r="D200">
-        <v>-1.6</v>
-      </c>
-      <c r="E200">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>12</v>
-      </c>
-      <c r="B201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" t="s">
-        <v>5</v>
-      </c>
-      <c r="D201">
-        <v>-1.6</v>
-      </c>
-      <c r="E201">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>12</v>
-      </c>
-      <c r="B202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202">
-        <v>-1.2</v>
-      </c>
-      <c r="E202">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>12</v>
-      </c>
-      <c r="B203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C203" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203">
-        <v>-1.2</v>
-      </c>
-      <c r="E203">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>12</v>
-      </c>
-      <c r="B204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C204" t="s">
-        <v>5</v>
-      </c>
-      <c r="D204">
-        <v>-1.2</v>
-      </c>
-      <c r="E204">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>12</v>
-      </c>
-      <c r="B205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205">
-        <v>-1.2</v>
-      </c>
-      <c r="E205">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>12</v>
-      </c>
-      <c r="B206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C206" t="s">
-        <v>5</v>
-      </c>
-      <c r="D206">
-        <v>-0.8</v>
-      </c>
-      <c r="E206">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>12</v>
-      </c>
-      <c r="B207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C207" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207">
-        <v>-0.8</v>
-      </c>
-      <c r="E207">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>12</v>
-      </c>
-      <c r="B208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C208" t="s">
-        <v>5</v>
-      </c>
-      <c r="D208">
-        <v>-0.8</v>
-      </c>
-      <c r="E208">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>12</v>
-      </c>
-      <c r="B209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C209" t="s">
-        <v>5</v>
-      </c>
-      <c r="D209">
-        <v>-0.8</v>
-      </c>
-      <c r="E209">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>12</v>
-      </c>
-      <c r="B210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C210" t="s">
-        <v>6</v>
-      </c>
-      <c r="D210">
-        <v>-2</v>
-      </c>
-      <c r="E210">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>12</v>
-      </c>
-      <c r="B211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211">
-        <v>-2</v>
-      </c>
-      <c r="E211">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212">
-        <v>12</v>
-      </c>
-      <c r="B212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212">
-        <v>-2</v>
-      </c>
-      <c r="E212">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>12</v>
-      </c>
-      <c r="B213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C213" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213">
-        <v>-2</v>
-      </c>
-      <c r="E213">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>12</v>
-      </c>
-      <c r="B214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C214" t="s">
-        <v>6</v>
-      </c>
-      <c r="D214">
-        <v>-1.6</v>
-      </c>
-      <c r="E214">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>12</v>
-      </c>
-      <c r="B215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C215" t="s">
-        <v>6</v>
-      </c>
-      <c r="D215">
-        <v>-1.6</v>
-      </c>
-      <c r="E215">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216">
-        <v>12</v>
-      </c>
-      <c r="B216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C216" t="s">
-        <v>6</v>
-      </c>
-      <c r="D216">
-        <v>-1.6</v>
-      </c>
-      <c r="E216">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217">
-        <v>12</v>
-      </c>
-      <c r="B217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C217" t="s">
-        <v>6</v>
-      </c>
-      <c r="D217">
-        <v>-1.6</v>
-      </c>
-      <c r="E217">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218">
-        <v>12</v>
-      </c>
-      <c r="B218" t="s">
-        <v>5</v>
-      </c>
-      <c r="C218" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218">
-        <v>-1.2</v>
-      </c>
-      <c r="E218">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219">
-        <v>12</v>
-      </c>
-      <c r="B219" t="s">
-        <v>5</v>
-      </c>
-      <c r="C219" t="s">
-        <v>6</v>
-      </c>
-      <c r="D219">
-        <v>-1.2</v>
-      </c>
-      <c r="E219">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220">
-        <v>12</v>
-      </c>
-      <c r="B220" t="s">
-        <v>5</v>
-      </c>
-      <c r="C220" t="s">
-        <v>6</v>
-      </c>
-      <c r="D220">
-        <v>-1.2</v>
-      </c>
-      <c r="E220">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221">
-        <v>12</v>
-      </c>
-      <c r="B221" t="s">
-        <v>5</v>
-      </c>
-      <c r="C221" t="s">
-        <v>6</v>
-      </c>
-      <c r="D221">
-        <v>-1.2</v>
-      </c>
-      <c r="E221">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>12</v>
-      </c>
-      <c r="B222" t="s">
-        <v>5</v>
-      </c>
-      <c r="C222" t="s">
-        <v>6</v>
-      </c>
-      <c r="D222">
-        <v>-0.8</v>
-      </c>
-      <c r="E222">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223">
-        <v>12</v>
-      </c>
-      <c r="B223" t="s">
-        <v>5</v>
-      </c>
-      <c r="C223" t="s">
-        <v>6</v>
-      </c>
-      <c r="D223">
-        <v>-0.8</v>
-      </c>
-      <c r="E223">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>12</v>
-      </c>
-      <c r="B224" t="s">
-        <v>5</v>
-      </c>
-      <c r="C224" t="s">
-        <v>6</v>
-      </c>
-      <c r="D224">
-        <v>-0.8</v>
-      </c>
-      <c r="E224">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225">
-        <v>12</v>
-      </c>
-      <c r="B225" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" t="s">
-        <v>6</v>
-      </c>
-      <c r="D225">
-        <v>-0.8</v>
-      </c>
-      <c r="E225">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226">
-        <v>12</v>
-      </c>
-      <c r="B226" t="s">
-        <v>6</v>
-      </c>
-      <c r="C226" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226">
-        <v>-2</v>
-      </c>
-      <c r="E226">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>12</v>
-      </c>
-      <c r="B227" t="s">
-        <v>6</v>
-      </c>
-      <c r="C227" t="s">
-        <v>5</v>
-      </c>
-      <c r="D227">
-        <v>-2</v>
-      </c>
-      <c r="E227">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>12</v>
-      </c>
-      <c r="B228" t="s">
-        <v>6</v>
-      </c>
-      <c r="C228" t="s">
-        <v>5</v>
-      </c>
-      <c r="D228">
-        <v>-2</v>
-      </c>
-      <c r="E228">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>12</v>
-      </c>
-      <c r="B229" t="s">
-        <v>6</v>
-      </c>
-      <c r="C229" t="s">
-        <v>5</v>
-      </c>
-      <c r="D229">
-        <v>-2</v>
-      </c>
-      <c r="E229">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>12</v>
-      </c>
-      <c r="B230" t="s">
-        <v>6</v>
-      </c>
-      <c r="C230" t="s">
-        <v>5</v>
-      </c>
-      <c r="D230">
-        <v>-1.6</v>
-      </c>
-      <c r="E230">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>12</v>
-      </c>
-      <c r="B231" t="s">
-        <v>6</v>
-      </c>
-      <c r="C231" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231">
-        <v>-1.6</v>
-      </c>
-      <c r="E231">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>12</v>
-      </c>
-      <c r="B232" t="s">
-        <v>6</v>
-      </c>
-      <c r="C232" t="s">
-        <v>5</v>
-      </c>
-      <c r="D232">
-        <v>-1.6</v>
-      </c>
-      <c r="E232">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>12</v>
-      </c>
-      <c r="B233" t="s">
-        <v>6</v>
-      </c>
-      <c r="C233" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233">
-        <v>-1.6</v>
-      </c>
-      <c r="E233">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>12</v>
-      </c>
-      <c r="B234" t="s">
-        <v>6</v>
-      </c>
-      <c r="C234" t="s">
-        <v>5</v>
-      </c>
-      <c r="D234">
-        <v>-1.2</v>
-      </c>
-      <c r="E234">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>12</v>
-      </c>
-      <c r="B235" t="s">
-        <v>6</v>
-      </c>
-      <c r="C235" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235">
-        <v>-1.2</v>
-      </c>
-      <c r="E235">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>12</v>
-      </c>
-      <c r="B236" t="s">
-        <v>6</v>
-      </c>
-      <c r="C236" t="s">
-        <v>5</v>
-      </c>
-      <c r="D236">
-        <v>-1.2</v>
-      </c>
-      <c r="E236">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>12</v>
-      </c>
-      <c r="B237" t="s">
-        <v>6</v>
-      </c>
-      <c r="C237" t="s">
-        <v>5</v>
-      </c>
-      <c r="D237">
-        <v>-1.2</v>
-      </c>
-      <c r="E237">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>12</v>
-      </c>
-      <c r="B238" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238">
-        <v>-0.8</v>
-      </c>
-      <c r="E238">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>12</v>
-      </c>
-      <c r="B239" t="s">
-        <v>6</v>
-      </c>
-      <c r="C239" t="s">
-        <v>5</v>
-      </c>
-      <c r="D239">
-        <v>-0.8</v>
-      </c>
-      <c r="E239">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240">
-        <v>12</v>
-      </c>
-      <c r="B240" t="s">
-        <v>6</v>
-      </c>
-      <c r="C240" t="s">
-        <v>5</v>
-      </c>
-      <c r="D240">
-        <v>-0.8</v>
-      </c>
-      <c r="E240">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241">
-        <v>12</v>
-      </c>
-      <c r="B241" t="s">
-        <v>6</v>
-      </c>
-      <c r="C241" t="s">
-        <v>5</v>
-      </c>
-      <c r="D241">
-        <v>-0.8</v>
-      </c>
-      <c r="E241">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242">
-        <v>12</v>
-      </c>
-      <c r="B242" t="s">
-        <v>6</v>
-      </c>
-      <c r="C242" t="s">
-        <v>6</v>
-      </c>
-      <c r="D242">
-        <v>-2</v>
-      </c>
-      <c r="E242">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>12</v>
-      </c>
-      <c r="B243" t="s">
-        <v>6</v>
-      </c>
-      <c r="C243" t="s">
-        <v>6</v>
-      </c>
-      <c r="D243">
-        <v>-2</v>
-      </c>
-      <c r="E243">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>12</v>
-      </c>
-      <c r="B244" t="s">
-        <v>6</v>
-      </c>
-      <c r="C244" t="s">
-        <v>6</v>
-      </c>
-      <c r="D244">
-        <v>-2</v>
-      </c>
-      <c r="E244">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>12</v>
-      </c>
-      <c r="B245" t="s">
-        <v>6</v>
-      </c>
-      <c r="C245" t="s">
-        <v>6</v>
-      </c>
-      <c r="D245">
-        <v>-2</v>
-      </c>
-      <c r="E245">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>12</v>
-      </c>
-      <c r="B246" t="s">
-        <v>6</v>
-      </c>
-      <c r="C246" t="s">
-        <v>6</v>
-      </c>
-      <c r="D246">
-        <v>-1.6</v>
-      </c>
-      <c r="E246">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247">
-        <v>12</v>
-      </c>
-      <c r="B247" t="s">
-        <v>6</v>
-      </c>
-      <c r="C247" t="s">
-        <v>6</v>
-      </c>
-      <c r="D247">
-        <v>-1.6</v>
-      </c>
-      <c r="E247">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248">
-        <v>12</v>
-      </c>
-      <c r="B248" t="s">
-        <v>6</v>
-      </c>
-      <c r="C248" t="s">
-        <v>6</v>
-      </c>
-      <c r="D248">
-        <v>-1.6</v>
-      </c>
-      <c r="E248">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>12</v>
-      </c>
-      <c r="B249" t="s">
-        <v>6</v>
-      </c>
-      <c r="C249" t="s">
-        <v>6</v>
-      </c>
-      <c r="D249">
-        <v>-1.6</v>
-      </c>
-      <c r="E249">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250">
-        <v>12</v>
-      </c>
-      <c r="B250" t="s">
-        <v>6</v>
-      </c>
-      <c r="C250" t="s">
-        <v>6</v>
-      </c>
-      <c r="D250">
-        <v>-1.2</v>
-      </c>
-      <c r="E250">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>12</v>
-      </c>
-      <c r="B251" t="s">
-        <v>6</v>
-      </c>
-      <c r="C251" t="s">
-        <v>6</v>
-      </c>
-      <c r="D251">
-        <v>-1.2</v>
-      </c>
-      <c r="E251">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>12</v>
-      </c>
-      <c r="B252" t="s">
-        <v>6</v>
-      </c>
-      <c r="C252" t="s">
-        <v>6</v>
-      </c>
-      <c r="D252">
-        <v>-1.2</v>
-      </c>
-      <c r="E252">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>12</v>
-      </c>
-      <c r="B253" t="s">
-        <v>6</v>
-      </c>
-      <c r="C253" t="s">
-        <v>6</v>
-      </c>
-      <c r="D253">
-        <v>-1.2</v>
-      </c>
-      <c r="E253">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>12</v>
-      </c>
-      <c r="B254" t="s">
-        <v>6</v>
-      </c>
-      <c r="C254" t="s">
-        <v>6</v>
-      </c>
-      <c r="D254">
-        <v>-0.8</v>
-      </c>
-      <c r="E254">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>12</v>
-      </c>
-      <c r="B255" t="s">
-        <v>6</v>
-      </c>
-      <c r="C255" t="s">
-        <v>6</v>
-      </c>
-      <c r="D255">
-        <v>-0.8</v>
-      </c>
-      <c r="E255">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>12</v>
-      </c>
-      <c r="B256" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" t="s">
-        <v>6</v>
-      </c>
-      <c r="D256">
-        <v>-0.8</v>
-      </c>
-      <c r="E256">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>12</v>
-      </c>
-      <c r="B257" t="s">
-        <v>6</v>
-      </c>
-      <c r="C257" t="s">
-        <v>6</v>
-      </c>
-      <c r="D257">
-        <v>-0.8</v>
-      </c>
-      <c r="E257">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
     </row>
   </sheetData>
